--- a/biology/Botanique/Encholirium/Encholirium.xlsx
+++ b/biology/Botanique/Encholirium/Encholirium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Encholirium est un genre de plante de la famille des Bromeliaceae endémique des régions arides du Brésil où il pousse sur les sols rocheux. Il est très proche du genre Dyckia.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont fécondées par des chauve-souris.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Encholirium belemii L.B. Smith &amp; R.W. Read
 Encholirium biflorum (Mez) Forzza
